--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1272401.207446071</v>
+        <v>1265022.261564546</v>
       </c>
     </row>
     <row r="7">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>189.7117828919391</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>340.0289890244596</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804553984</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.817218682477</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734099341</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,13 +825,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>37.6770952877654</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>188.8990503814259</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>70.36717413710841</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>23.79925355567278</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>161.1380887804644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>4.44362591409719</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>144.2583213043397</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>131.552212841269</v>
       </c>
       <c r="Y10" t="n">
-        <v>23.12882372414249</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>220.7850569516821</v>
       </c>
       <c r="W13" t="n">
-        <v>107.7334339714651</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>125.12481925277</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>183.0697179791827</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2013,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>151.6268290012352</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>101.4278957699519</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>49.21724344114033</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>101.427895769956</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>65.31126771337257</v>
       </c>
       <c r="T25" t="n">
-        <v>60.78588302866591</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>116.4270104993219</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>115.080668274849</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>247.364506217123</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>109.9946371007606</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>164.3080533342811</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>214.4911973959059</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>44.4811328290778</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>10.36329341937095</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>28.16843932555907</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>174.3083839492918</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>122.0775978463449</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>1.514835517126446</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>165.2683551511239</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>72.43626975031485</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1405.52688261361</v>
+        <v>1252.833343223195</v>
       </c>
       <c r="C2" t="n">
-        <v>1213.898819086399</v>
+        <v>1252.833343223195</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>1252.833343223195</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>867.0450906249503</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477183</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927148</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927148</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923658</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653544</v>
+        <v>2403.038273524208</v>
       </c>
       <c r="X2" t="n">
-        <v>2182.266054653544</v>
+        <v>2029.572515263128</v>
       </c>
       <c r="Y2" t="n">
-        <v>1792.126722677732</v>
+        <v>1639.433183287316</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811061</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999791</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387279</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686066</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992582</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410636</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886739</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533339</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125854</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619334</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431605</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199862</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471661</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266128</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501174</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>385.564938772426</v>
+        <v>739.238540987944</v>
       </c>
       <c r="C4" t="n">
-        <v>216.6287558445191</v>
+        <v>570.3023580600371</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>420.1857186477014</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>272.2726250653083</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962276</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.645724237293</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596501</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588477</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886951</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068846</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596431</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="T4" t="n">
-        <v>640.249426978313</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="U4" t="n">
-        <v>640.249426978313</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="V4" t="n">
-        <v>385.564938772426</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="W4" t="n">
-        <v>385.564938772426</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="X4" t="n">
-        <v>385.564938772426</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="Y4" t="n">
-        <v>385.564938772426</v>
+        <v>920.8870058181838</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1672.191441142817</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1303.228924202405</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1303.228924202405</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810566</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993394</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649823</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="W5" t="n">
-        <v>2435.796531379709</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="X5" t="n">
-        <v>2062.330773118629</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="Y5" t="n">
-        <v>1672.191441142817</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4637,31 +4637,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>311.7508871962312</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>311.7508871962312</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7508871962312</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.3348699696228</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.788049458848</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886955</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>474.5166334391246</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>474.5166334391246</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X7" t="n">
-        <v>474.5166334391246</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y7" t="n">
-        <v>311.7508871962312</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1513.341883274785</v>
+        <v>1605.601998493311</v>
       </c>
       <c r="C8" t="n">
-        <v>1144.379366334374</v>
+        <v>1236.639481552899</v>
       </c>
       <c r="D8" t="n">
-        <v>786.1136677276232</v>
+        <v>1236.639481552899</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4825,31 +4825,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2973.912597928404</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.849710584833</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2290.081055314719</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X8" t="n">
-        <v>2290.081055314719</v>
+        <v>2382.341170533244</v>
       </c>
       <c r="Y8" t="n">
-        <v>1899.941723338907</v>
+        <v>1992.201838557432</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.4321398396067</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C10" t="n">
-        <v>380.4321398396067</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4971,43 +4971,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>631.7841389438286</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>631.7841389438286</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>631.7841389438286</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>403.7945880458112</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y10" t="n">
-        <v>380.4321398396067</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="11">
@@ -5035,37 +5035,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>702.4944101284095</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>533.5582272005026</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>383.4415877881669</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K13" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L13" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M13" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N13" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O13" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P13" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q13" t="n">
         <v>1440.555541309953</v>
@@ -5229,22 +5229,22 @@
         <v>1440.555541309953</v>
       </c>
       <c r="T13" t="n">
-        <v>1220.954076332894</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U13" t="n">
-        <v>1220.954076332894</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V13" t="n">
-        <v>1220.954076332894</v>
+        <v>928.4651056120481</v>
       </c>
       <c r="W13" t="n">
-        <v>1112.132425856666</v>
+        <v>928.4651056120481</v>
       </c>
       <c r="X13" t="n">
-        <v>884.1428749586493</v>
+        <v>928.4651056120481</v>
       </c>
       <c r="Y13" t="n">
-        <v>884.1428749586493</v>
+        <v>707.672526468518</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>676.0032473047336</v>
+        <v>262.7528459758788</v>
       </c>
       <c r="C16" t="n">
-        <v>676.0032473047336</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="D16" t="n">
-        <v>676.0032473047336</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K16" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L16" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M16" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N16" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O16" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P16" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q16" t="n">
         <v>1440.555541309953</v>
@@ -5469,19 +5469,19 @@
         <v>1440.555541309953</v>
       </c>
       <c r="U16" t="n">
-        <v>1151.480314654151</v>
+        <v>1255.636634260274</v>
       </c>
       <c r="V16" t="n">
-        <v>896.7958264482637</v>
+        <v>1000.952146054387</v>
       </c>
       <c r="W16" t="n">
-        <v>896.7958264482637</v>
+        <v>711.5349760174263</v>
       </c>
       <c r="X16" t="n">
-        <v>896.7958264482637</v>
+        <v>483.5454251194089</v>
       </c>
       <c r="Y16" t="n">
-        <v>676.0032473047336</v>
+        <v>262.7528459758788</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
         <v>1072.713683962606</v>
@@ -5606,13 +5606,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797186</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K19" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L19" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M19" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N19" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O19" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P19" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q19" t="n">
         <v>1440.555541309953</v>
@@ -5700,25 +5700,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S19" t="n">
-        <v>1257.700706964857</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T19" t="n">
-        <v>1104.542293832297</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U19" t="n">
-        <v>815.4670671764944</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="V19" t="n">
-        <v>560.7825789706076</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="W19" t="n">
-        <v>560.7825789706076</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>560.7825789706076</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>560.7825789706076</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5746,40 +5746,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>738.7889117913853</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>411.1294017454277</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>140.7528025687997</v>
@@ -5916,46 +5916,46 @@
         <v>296.7657364131323</v>
       </c>
       <c r="L22" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629378</v>
       </c>
       <c r="M22" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936213</v>
       </c>
       <c r="N22" t="n">
-        <v>1018.909846477608</v>
+        <v>1018.909846477613</v>
       </c>
       <c r="O22" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484374</v>
       </c>
       <c r="P22" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377032</v>
       </c>
       <c r="Q22" t="n">
-        <v>1440.555541309953</v>
+        <v>1440.555541309958</v>
       </c>
       <c r="R22" t="n">
-        <v>1373.509837562356</v>
+        <v>1440.555541309958</v>
       </c>
       <c r="S22" t="n">
-        <v>1190.65500321726</v>
+        <v>1440.555541309958</v>
       </c>
       <c r="T22" t="n">
-        <v>971.0535382402015</v>
+        <v>1440.555541309958</v>
       </c>
       <c r="U22" t="n">
-        <v>921.3391509259184</v>
+        <v>1440.555541309958</v>
       </c>
       <c r="V22" t="n">
-        <v>921.3391509259184</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="W22" t="n">
-        <v>631.9219808889578</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>631.9219808889578</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>411.1294017454277</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5980,13 +5980,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5995,16 +5995,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6028,10 +6028,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3904.025090859528</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C25" t="n">
-        <v>3735.088907931621</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D25" t="n">
-        <v>3735.088907931621</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E25" t="n">
-        <v>3735.088907931621</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>3735.088907931621</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>3567.892808646501</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>3426.180977488699</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>3344.094274136613</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>3391.03041365744</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K25" t="n">
-        <v>3547.043347501773</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L25" t="n">
-        <v>3776.591987151574</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M25" t="n">
-        <v>4021.877125582258</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N25" t="n">
-        <v>4269.187457566249</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O25" t="n">
-        <v>4477.30548857301</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P25" t="n">
-        <v>4636.324446465668</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S25" t="n">
-        <v>4690.833152398593</v>
+        <v>1374.584563821698</v>
       </c>
       <c r="T25" t="n">
-        <v>4629.433270551456</v>
+        <v>1154.983098844639</v>
       </c>
       <c r="U25" t="n">
-        <v>4340.358043895654</v>
+        <v>865.9078721888367</v>
       </c>
       <c r="V25" t="n">
-        <v>4085.673555689767</v>
+        <v>611.2233839829498</v>
       </c>
       <c r="W25" t="n">
-        <v>4085.673555689767</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X25" t="n">
-        <v>4085.673555689767</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="Y25" t="n">
-        <v>4085.673555689767</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6247,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>2233.355914590558</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2567.280686761779</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>2808.971891347485</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3406.350378974037</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>4033.948342528643</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>608.6156001759774</v>
+        <v>404.4646771336807</v>
       </c>
       <c r="C28" t="n">
-        <v>608.6156001759774</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="D28" t="n">
-        <v>491.0125592675714</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>140.7528025687996</v>
@@ -6408,28 +6408,28 @@
         <v>1440.555541309953</v>
       </c>
       <c r="R28" t="n">
-        <v>1373.509837562355</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S28" t="n">
-        <v>1373.509837562355</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T28" t="n">
-        <v>1373.509837562355</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U28" t="n">
-        <v>1373.509837562355</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="V28" t="n">
-        <v>1118.825349356468</v>
+        <v>1324.312442042429</v>
       </c>
       <c r="W28" t="n">
-        <v>829.4081793195076</v>
+        <v>1034.895272005468</v>
       </c>
       <c r="X28" t="n">
-        <v>829.4081793195076</v>
+        <v>806.9057211074505</v>
       </c>
       <c r="Y28" t="n">
-        <v>608.6156001759774</v>
+        <v>586.1131419639204</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3743.493716186154</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="C31" t="n">
-        <v>3743.493716186154</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="D31" t="n">
-        <v>3593.377076773819</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="E31" t="n">
-        <v>3593.377076773819</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>3593.377076773819</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>3426.180977488699</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>3426.180977488699</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>3344.094274136613</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>3391.03041365744</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K31" t="n">
-        <v>3547.043347501773</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L31" t="n">
-        <v>3776.591987151574</v>
+        <v>526.3143760629288</v>
       </c>
       <c r="M31" t="n">
-        <v>4021.877125582258</v>
+        <v>771.5995144936122</v>
       </c>
       <c r="N31" t="n">
-        <v>4269.187457566249</v>
+        <v>1018.909846477603</v>
       </c>
       <c r="O31" t="n">
-        <v>4477.30548857301</v>
+        <v>1227.027877484365</v>
       </c>
       <c r="P31" t="n">
-        <v>4636.324446465668</v>
+        <v>1386.046835377023</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>1440.555541309948</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>1440.555541309948</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650995</v>
+        <v>1257.700706964853</v>
       </c>
       <c r="T31" t="n">
-        <v>4623.787448650995</v>
+        <v>1038.099241987794</v>
       </c>
       <c r="U31" t="n">
-        <v>4373.924311057942</v>
+        <v>749.0240153319917</v>
       </c>
       <c r="V31" t="n">
-        <v>4373.924311057942</v>
+        <v>494.3395271261048</v>
       </c>
       <c r="W31" t="n">
-        <v>4373.924311057942</v>
+        <v>204.9223570891442</v>
       </c>
       <c r="X31" t="n">
-        <v>4145.934760159925</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="Y31" t="n">
-        <v>3925.142181016394</v>
+        <v>93.81666304797186</v>
       </c>
     </row>
     <row r="32">
@@ -6779,19 +6779,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832229</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="C34" t="n">
-        <v>634.927936255316</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6882,28 +6882,28 @@
         <v>1440.555541309953</v>
       </c>
       <c r="R34" t="n">
-        <v>1440.555541309953</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="S34" t="n">
-        <v>1274.587810669265</v>
+        <v>1190.65500321726</v>
       </c>
       <c r="T34" t="n">
-        <v>1274.587810669265</v>
+        <v>971.0535382402009</v>
       </c>
       <c r="U34" t="n">
-        <v>985.5125840134626</v>
+        <v>681.9783115843986</v>
       </c>
       <c r="V34" t="n">
-        <v>985.5125840134626</v>
+        <v>465.3205364370189</v>
       </c>
       <c r="W34" t="n">
-        <v>985.5125840134626</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="X34" t="n">
-        <v>985.5125840134626</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.5125840134626</v>
+        <v>175.9033664000583</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7025,19 +7025,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>806.8386896933887</v>
+        <v>456.0598389465164</v>
       </c>
       <c r="C37" t="n">
-        <v>637.9025067654818</v>
+        <v>456.0598389465164</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>305.9431995341806</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S37" t="n">
-        <v>1257.700706964857</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T37" t="n">
-        <v>1038.099241987798</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="U37" t="n">
-        <v>1027.631268836919</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="V37" t="n">
-        <v>1027.631268836919</v>
+        <v>966.2695881270071</v>
       </c>
       <c r="W37" t="n">
-        <v>1027.631268836919</v>
+        <v>676.8524180900465</v>
       </c>
       <c r="X37" t="n">
-        <v>1027.631268836919</v>
+        <v>676.8524180900465</v>
       </c>
       <c r="Y37" t="n">
-        <v>806.8386896933887</v>
+        <v>456.0598389465164</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>721.7774158311364</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C40" t="n">
-        <v>552.8412329032295</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K40" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L40" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M40" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N40" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O40" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P40" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q40" t="n">
         <v>1440.555541309953</v>
       </c>
       <c r="R40" t="n">
-        <v>1412.102572294237</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S40" t="n">
-        <v>1412.102572294237</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T40" t="n">
-        <v>1192.501107317178</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U40" t="n">
-        <v>903.4258806613761</v>
+        <v>1264.486466613698</v>
       </c>
       <c r="V40" t="n">
-        <v>903.4258806613761</v>
+        <v>1009.801978407811</v>
       </c>
       <c r="W40" t="n">
-        <v>903.4258806613761</v>
+        <v>720.3848083708508</v>
       </c>
       <c r="X40" t="n">
-        <v>903.4258806613761</v>
+        <v>720.3848083708508</v>
       </c>
       <c r="Y40" t="n">
-        <v>903.4258806613761</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="41">
@@ -7399,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>681.9783115843993</v>
+        <v>848.0626912366002</v>
       </c>
       <c r="C43" t="n">
-        <v>681.9783115843993</v>
+        <v>679.1265083086934</v>
       </c>
       <c r="D43" t="n">
-        <v>531.8616721720635</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>383.9485785896704</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>237.0586310917601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K43" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L43" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M43" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N43" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O43" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P43" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q43" t="n">
         <v>1440.555541309953</v>
       </c>
       <c r="R43" t="n">
-        <v>1373.509837562356</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S43" t="n">
-        <v>1190.65500321726</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T43" t="n">
-        <v>971.0535382402015</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="U43" t="n">
-        <v>681.9783115843993</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="V43" t="n">
-        <v>681.9783115843993</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="W43" t="n">
-        <v>681.9783115843993</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="X43" t="n">
-        <v>681.9783115843993</v>
+        <v>1029.71115606684</v>
       </c>
       <c r="Y43" t="n">
-        <v>681.9783115843993</v>
+        <v>1029.71115606684</v>
       </c>
     </row>
     <row r="44">
@@ -7727,28 +7727,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>214.9229991561138</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>550.637687073287</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C46" t="n">
-        <v>550.637687073287</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>1440.555541309953</v>
       </c>
       <c r="R46" t="n">
-        <v>1373.509837562355</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S46" t="n">
-        <v>1206.572105086472</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T46" t="n">
-        <v>986.9706401094136</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="U46" t="n">
-        <v>986.9706401094136</v>
+        <v>931.8788496770917</v>
       </c>
       <c r="V46" t="n">
-        <v>732.2861519035267</v>
+        <v>677.1943614712048</v>
       </c>
       <c r="W46" t="n">
-        <v>732.2861519035267</v>
+        <v>387.7771914342442</v>
       </c>
       <c r="X46" t="n">
-        <v>732.2861519035267</v>
+        <v>314.6092421915019</v>
       </c>
       <c r="Y46" t="n">
-        <v>732.2861519035267</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
   </sheetData>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>31.35258637214591</v>
       </c>
       <c r="W13" t="n">
-        <v>178.7895643651258</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>21.30914339379916</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23709,16 +23709,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>103.1147564100614</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>65.7786213260531</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>150.7097475538761</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>236.9672309481038</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>150.709747553872</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>115.715018288272</v>
       </c>
       <c r="T25" t="n">
-        <v>156.6195672986223</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>32.18846251889042</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24660,13 +24660,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>137.056975048979</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>38.81996817212112</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>115.7150182882765</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>16.71823266736354</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>37.64644592792206</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>101.9528298174914</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.8211809698732</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>38.20680738456259</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>111.8760904399523</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>26.53787517186741</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.0093027751424</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>15.75793085052069</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>153.2733856387223</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>900719.5099585134</v>
+        <v>900719.5099585135</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>900719.5099585135</v>
+        <v>900719.5099585137</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>900719.5099585135</v>
+        <v>900719.5099585134</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>900719.5099585137</v>
+        <v>900719.5099585135</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>900719.5099585137</v>
+        <v>900719.5099585133</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>900719.5099585135</v>
+        <v>900719.5099585134</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>900719.5099585135</v>
+        <v>900719.5099585134</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>900719.5099585134</v>
+        <v>900719.5099585135</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>469940.6138913982</v>
+        <v>469940.6138913981</v>
       </c>
       <c r="F2" t="n">
         <v>469940.6138913982</v>
       </c>
       <c r="G2" t="n">
+        <v>469940.6138913982</v>
+      </c>
+      <c r="H2" t="n">
+        <v>469940.6138913982</v>
+      </c>
+      <c r="I2" t="n">
+        <v>469940.6138913982</v>
+      </c>
+      <c r="J2" t="n">
+        <v>469940.6138913981</v>
+      </c>
+      <c r="K2" t="n">
+        <v>469940.6138913981</v>
+      </c>
+      <c r="L2" t="n">
         <v>469940.613891398</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
+        <v>469940.613891398</v>
+      </c>
+      <c r="N2" t="n">
+        <v>469940.613891398</v>
+      </c>
+      <c r="O2" t="n">
+        <v>469940.613891398</v>
+      </c>
+      <c r="P2" t="n">
         <v>469940.6138913981</v>
-      </c>
-      <c r="I2" t="n">
-        <v>469940.6138913981</v>
-      </c>
-      <c r="J2" t="n">
-        <v>469940.6138913982</v>
-      </c>
-      <c r="K2" t="n">
-        <v>469940.613891398</v>
-      </c>
-      <c r="L2" t="n">
-        <v>469940.6138913983</v>
-      </c>
-      <c r="M2" t="n">
-        <v>469940.6138913982</v>
-      </c>
-      <c r="N2" t="n">
-        <v>469940.6138913983</v>
-      </c>
-      <c r="O2" t="n">
-        <v>469940.6138913982</v>
-      </c>
-      <c r="P2" t="n">
-        <v>469940.6138913982</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.359841684869025e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,25 +26383,25 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.726386926748091e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405272</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086835455</v>
       </c>
       <c r="F4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086835455</v>
       </c>
       <c r="G4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086835455</v>
       </c>
       <c r="H4" t="n">
-        <v>761.3882086835454</v>
+        <v>761.3882086835456</v>
       </c>
       <c r="I4" t="n">
         <v>761.3882086835451</v>
       </c>
       <c r="J4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086836097</v>
       </c>
       <c r="K4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086835449</v>
       </c>
       <c r="L4" t="n">
         <v>761.3882086835451</v>
@@ -26453,10 +26453,10 @@
         <v>761.3882086835451</v>
       </c>
       <c r="N4" t="n">
-        <v>761.3882086835454</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="O4" t="n">
-        <v>761.3882086835454</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="P4" t="n">
         <v>761.3882086835451</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26481,10 +26481,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1037650.368474469</v>
+        <v>-1037650.368474468</v>
       </c>
       <c r="C6" t="n">
-        <v>291094.377253124</v>
+        <v>291094.3772531237</v>
       </c>
       <c r="D6" t="n">
-        <v>291094.377253124</v>
+        <v>291094.3772531237</v>
       </c>
       <c r="E6" t="n">
-        <v>42644.23405145241</v>
+        <v>41699.0487169863</v>
       </c>
       <c r="F6" t="n">
-        <v>368056.6958588075</v>
+        <v>367111.5105243421</v>
       </c>
       <c r="G6" t="n">
-        <v>368056.6958588074</v>
+        <v>367111.5105243421</v>
       </c>
       <c r="H6" t="n">
-        <v>368056.6958588072</v>
+        <v>367111.5105243421</v>
       </c>
       <c r="I6" t="n">
-        <v>368056.6958588076</v>
+        <v>367111.5105243424</v>
       </c>
       <c r="J6" t="n">
-        <v>150525.4934615301</v>
+        <v>149580.3081270646</v>
       </c>
       <c r="K6" t="n">
-        <v>368056.6958588074</v>
+        <v>367111.5105243419</v>
       </c>
       <c r="L6" t="n">
-        <v>368056.6958588077</v>
+        <v>367111.5105243417</v>
       </c>
       <c r="M6" t="n">
-        <v>283001.6679232958</v>
+        <v>282056.4825888299</v>
       </c>
       <c r="N6" t="n">
-        <v>368056.6958588075</v>
+        <v>367111.5105243419</v>
       </c>
       <c r="O6" t="n">
-        <v>368056.6958588075</v>
+        <v>367111.5105243418</v>
       </c>
       <c r="P6" t="n">
-        <v>368056.6958588077</v>
+        <v>367111.510524342</v>
       </c>
     </row>
   </sheetData>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26825,10 +26825,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402292</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>175.5611088790685</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>66.84705671725186</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27466,7 +27466,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.529532139305957e-12</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>107.7439527351658</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>30.64989889474327</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>311.5631959351534</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>362.4386851003808</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>57.44656457163035</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>377.4867441581646</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>106.7368506545623</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28025,10 +28025,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>94.15744254776814</v>
       </c>
       <c r="Y10" t="n">
-        <v>195.4558296279523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28988,7 +28988,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29699,7 +29699,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31609,7 +31609,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233475</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P12" t="n">
-        <v>506.0735392239789</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990634</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>270.4557004614713</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32505,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32554,31 +32554,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>705.9257335045844</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32645,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>436.4492970000073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33025,13 +33025,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>382.6869096644259</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33499,7 +33499,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>615.1181176946646</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>729.0844763571695</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>287.9685048518521</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,16 +33997,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>578.1083652167721</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,16 +34234,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34447,10 +34447,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>247.3820194983584</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.9421752903428</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996669</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286435</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.123718484038</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230781</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567571</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106919</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014208</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013292</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P12" t="n">
-        <v>372.0991318096486</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194023011</v>
       </c>
       <c r="K13" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L13" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M13" t="n">
-        <v>247.7627660915995</v>
+        <v>247.7627660915996</v>
       </c>
       <c r="N13" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O13" t="n">
-        <v>210.220233340163</v>
+        <v>210.2202333401631</v>
       </c>
       <c r="P13" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214695</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>303.878697277045</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>136.4812930471411</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194023011</v>
       </c>
       <c r="K16" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L16" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M16" t="n">
-        <v>247.7627660915995</v>
+        <v>247.7627660915996</v>
       </c>
       <c r="N16" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O16" t="n">
-        <v>210.220233340163</v>
+        <v>210.2202333401631</v>
       </c>
       <c r="P16" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214695</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194023011</v>
       </c>
       <c r="K19" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L19" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M19" t="n">
-        <v>247.7627660915995</v>
+        <v>247.7627660915996</v>
       </c>
       <c r="N19" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O19" t="n">
-        <v>210.220233340163</v>
+        <v>210.2202333401631</v>
       </c>
       <c r="P19" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214695</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>574.5840214212511</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023011</v>
       </c>
       <c r="K22" t="n">
         <v>157.5888220649825</v>
       </c>
       <c r="L22" t="n">
-        <v>231.8673127775771</v>
+        <v>231.8673127775813</v>
       </c>
       <c r="M22" t="n">
-        <v>247.7627660915995</v>
+        <v>247.7627660915996</v>
       </c>
       <c r="N22" t="n">
         <v>249.8084161454457</v>
       </c>
       <c r="O22" t="n">
-        <v>210.220233340163</v>
+        <v>210.2202333401631</v>
       </c>
       <c r="P22" t="n">
         <v>160.6252099925839</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214695</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>244.1325298845517</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36995,7 +36995,7 @@
         <v>157.5888220649824</v>
       </c>
       <c r="L31" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775723</v>
       </c>
       <c r="M31" t="n">
         <v>247.7627660915995</v>
@@ -37147,7 +37147,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>483.7764056113314</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>586.9504424351511</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>150.1270658774932</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K40" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L40" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M40" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N40" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O40" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P40" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q40" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>446.7666531334388</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K43" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L43" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M43" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N43" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O43" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P43" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q43" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>120.5443928316917</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1265022.261564546</v>
+        <v>1269812.49414811</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1134222.401358593</v>
+        <v>1134222.401358594</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>4.792004777349415</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>340.0289890244596</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292606</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804553984</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734099341</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,19 +819,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>37.6770952877654</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>227.8655576819401</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>78.78083674902116</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.79925355567278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.08802744677224</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>81.77200357366353</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>4.44362591409719</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>80.0567106666434</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>131.552212841269</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>203.7029035467948</v>
       </c>
     </row>
     <row r="11">
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>132.9110887505226</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>220.7850569516821</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>64.13206468856666</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>183.0697179791827</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>4.12595920844798</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>101.4278957699519</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>194.8568206466574</v>
       </c>
       <c r="V22" t="n">
-        <v>101.427895769956</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>141.5093642092134</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>65.31126771337257</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>115.080668274849</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>181.4348383015733</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>80.31681737316907</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>109.9946371007606</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>46.66264320072102</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>214.4911973959059</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3429,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>44.4811328290778</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>5.283841756050103</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>64.1320646885659</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>174.3083839492918</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>122.0775978463449</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>65.31126771337257</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>72.43626975031485</v>
+        <v>109.9946371007651</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1252.833343223195</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C2" t="n">
-        <v>1252.833343223195</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1252.833343223195</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>867.0450906249503</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477183</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927148</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927148</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794322</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794322</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524208</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.572515263128</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1639.433183287316</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811061</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999791</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387279</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
         <v>458.9189605332749</v>
@@ -4400,61 +4400,61 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158125</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992582</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410636</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886739</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533339</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125854</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619334</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431605</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199862</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471661</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266128</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501174</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>739.238540987944</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>570.3023580600371</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>420.1857186477014</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>272.2726250653083</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962276</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.645724237293</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596501</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588477</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886951</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068846</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596431</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181838</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181838</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181838</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181838</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181838</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181838</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181838</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181838</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181838</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794322</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794322</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794322</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>2755.806928794322</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>2424.744041450754</v>
       </c>
     </row>
     <row r="6">
@@ -4637,31 +4637,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.3348699696228</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.788049458848</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886955</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181845</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181845</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181845</v>
+        <v>149.1100998399244</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181845</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1605.601998493311</v>
+        <v>1285.591601078694</v>
       </c>
       <c r="C8" t="n">
-        <v>1236.639481552899</v>
+        <v>916.6290841382822</v>
       </c>
       <c r="D8" t="n">
-        <v>1236.639481552899</v>
+        <v>558.3633855315318</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>558.3633855315318</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>147.3774807419242</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W8" t="n">
-        <v>2755.806928794324</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X8" t="n">
-        <v>2382.341170533244</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y8" t="n">
-        <v>1992.201838557432</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>385.5649387724261</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -5004,10 +5004,10 @@
         <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>788.005982746196</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>567.2134036026658</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5038,16 +5038,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5059,7 +5059,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282754</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
         <v>93.81666304797189</v>
@@ -5229,22 +5229,22 @@
         <v>1440.555541309953</v>
       </c>
       <c r="T13" t="n">
-        <v>1440.555541309953</v>
+        <v>1220.954076332895</v>
       </c>
       <c r="U13" t="n">
-        <v>1151.480314654151</v>
+        <v>1220.954076332895</v>
       </c>
       <c r="V13" t="n">
-        <v>928.4651056120481</v>
+        <v>966.2695881270078</v>
       </c>
       <c r="W13" t="n">
-        <v>928.4651056120481</v>
+        <v>676.8524180900472</v>
       </c>
       <c r="X13" t="n">
-        <v>928.4651056120481</v>
+        <v>448.8628671920299</v>
       </c>
       <c r="Y13" t="n">
-        <v>707.672526468518</v>
+        <v>228.0702880484997</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,16 +5266,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
@@ -5299,19 +5299,19 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>262.7528459758788</v>
+        <v>158.5965263697564</v>
       </c>
       <c r="C16" t="n">
-        <v>93.81666304797191</v>
+        <v>158.5965263697564</v>
       </c>
       <c r="D16" t="n">
-        <v>93.81666304797191</v>
+        <v>158.5965263697564</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>140.7528025687997</v>
@@ -5469,19 +5469,19 @@
         <v>1440.555541309953</v>
       </c>
       <c r="U16" t="n">
-        <v>1255.636634260274</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V16" t="n">
-        <v>1000.952146054387</v>
+        <v>896.7958264482644</v>
       </c>
       <c r="W16" t="n">
-        <v>711.5349760174263</v>
+        <v>607.3786564113038</v>
       </c>
       <c r="X16" t="n">
-        <v>483.5454251194089</v>
+        <v>379.3891055132865</v>
       </c>
       <c r="Y16" t="n">
-        <v>262.7528459758788</v>
+        <v>158.5965263697564</v>
       </c>
     </row>
     <row r="17">
@@ -5503,25 +5503,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5536,10 +5536,10 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492579</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
         <v>1072.713683962606</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K19" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L19" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M19" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N19" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O19" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P19" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q19" t="n">
         <v>1440.555541309953</v>
@@ -5706,19 +5706,19 @@
         <v>1440.555541309953</v>
       </c>
       <c r="U19" t="n">
-        <v>1440.555541309953</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V19" t="n">
-        <v>1338.103121340305</v>
+        <v>896.7958264482637</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>607.3786564113032</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>607.3786564113032</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>386.586077267773</v>
       </c>
     </row>
     <row r="20">
@@ -5746,40 +5746,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282754</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458823</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K22" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L22" t="n">
-        <v>526.3143760629378</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M22" t="n">
-        <v>771.5995144936213</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N22" t="n">
-        <v>1018.909846477613</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O22" t="n">
-        <v>1227.027877484374</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P22" t="n">
-        <v>1386.046835377032</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q22" t="n">
-        <v>1440.555541309958</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R22" t="n">
-        <v>1440.555541309958</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="S22" t="n">
-        <v>1440.555541309958</v>
+        <v>1190.65500321726</v>
       </c>
       <c r="T22" t="n">
-        <v>1440.555541309958</v>
+        <v>971.0535382402009</v>
       </c>
       <c r="U22" t="n">
-        <v>1440.555541309958</v>
+        <v>774.2284668799408</v>
       </c>
       <c r="V22" t="n">
-        <v>1338.103121340305</v>
+        <v>774.2284668799408</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>484.8112968429802</v>
       </c>
     </row>
     <row r="23">
@@ -5986,7 +5986,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5995,13 +5995,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6028,10 +6028,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.81666304797187</v>
+        <v>702.6981846126031</v>
       </c>
       <c r="C25" t="n">
-        <v>93.81666304797187</v>
+        <v>533.7620016846962</v>
       </c>
       <c r="D25" t="n">
-        <v>93.81666304797187</v>
+        <v>383.6453622723604</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S25" t="n">
-        <v>1374.584563821698</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T25" t="n">
-        <v>1154.983098844639</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U25" t="n">
-        <v>865.9078721888367</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V25" t="n">
-        <v>611.2233839829498</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="W25" t="n">
-        <v>321.8062139459892</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="X25" t="n">
-        <v>93.81666304797187</v>
+        <v>923.4907637561332</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.81666304797187</v>
+        <v>702.6981846126031</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
@@ -6229,49 +6229,49 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>404.4646771336807</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="C28" t="n">
-        <v>235.5284942057738</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D28" t="n">
-        <v>235.5284942057738</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E28" t="n">
-        <v>235.5284942057738</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
         <v>235.5284942057738</v>
@@ -6378,10 +6378,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>140.7528025687996</v>
@@ -6411,25 +6411,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S28" t="n">
-        <v>1440.555541309953</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T28" t="n">
-        <v>1440.555541309953</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="U28" t="n">
-        <v>1440.555541309953</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="V28" t="n">
-        <v>1324.312442042429</v>
+        <v>1003.01621875897</v>
       </c>
       <c r="W28" t="n">
-        <v>1034.895272005468</v>
+        <v>713.5990487220099</v>
       </c>
       <c r="X28" t="n">
-        <v>806.9057211074505</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="Y28" t="n">
-        <v>586.1131419639204</v>
+        <v>530.3315352860773</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
@@ -6466,49 +6466,49 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.81666304797186</v>
+        <v>493.997583744951</v>
       </c>
       <c r="C31" t="n">
-        <v>93.81666304797186</v>
+        <v>325.061400817044</v>
       </c>
       <c r="D31" t="n">
-        <v>93.81666304797186</v>
+        <v>174.9447614047083</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797186</v>
+        <v>174.9447614047083</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797186</v>
+        <v>174.9447614047083</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>174.9447614047083</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>140.7528025687996</v>
@@ -6627,46 +6627,46 @@
         <v>296.7657364131322</v>
       </c>
       <c r="L31" t="n">
-        <v>526.3143760629288</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M31" t="n">
-        <v>771.5995144936122</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N31" t="n">
-        <v>1018.909846477603</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O31" t="n">
-        <v>1227.027877484365</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P31" t="n">
-        <v>1386.046835377023</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q31" t="n">
-        <v>1440.555541309948</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R31" t="n">
-        <v>1440.555541309948</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S31" t="n">
-        <v>1257.700706964853</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T31" t="n">
-        <v>1038.099241987794</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U31" t="n">
-        <v>749.0240153319917</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="V31" t="n">
-        <v>494.3395271261048</v>
+        <v>783.4147537819116</v>
       </c>
       <c r="W31" t="n">
-        <v>204.9223570891442</v>
+        <v>493.997583744951</v>
       </c>
       <c r="X31" t="n">
-        <v>93.81666304797186</v>
+        <v>493.997583744951</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.81666304797186</v>
+        <v>493.997583744951</v>
       </c>
     </row>
     <row r="32">
@@ -6682,22 +6682,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>175.9033664000583</v>
+        <v>456.0598389465164</v>
       </c>
       <c r="C34" t="n">
-        <v>175.9033664000583</v>
+        <v>456.0598389465164</v>
       </c>
       <c r="D34" t="n">
-        <v>175.9033664000583</v>
+        <v>456.0598389465164</v>
       </c>
       <c r="E34" t="n">
-        <v>175.9033664000583</v>
+        <v>308.1467453641233</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>1440.555541309953</v>
       </c>
       <c r="R34" t="n">
-        <v>1373.509837562355</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S34" t="n">
-        <v>1190.65500321726</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T34" t="n">
-        <v>971.0535382402009</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="U34" t="n">
-        <v>681.9783115843986</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="V34" t="n">
-        <v>465.3205364370189</v>
+        <v>966.2695881270071</v>
       </c>
       <c r="W34" t="n">
-        <v>175.9033664000583</v>
+        <v>676.8524180900465</v>
       </c>
       <c r="X34" t="n">
-        <v>175.9033664000583</v>
+        <v>676.8524180900465</v>
       </c>
       <c r="Y34" t="n">
-        <v>175.9033664000583</v>
+        <v>456.0598389465164</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>456.0598389465164</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="C37" t="n">
-        <v>456.0598389465164</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="D37" t="n">
-        <v>305.9431995341806</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E37" t="n">
         <v>261.0127623330919</v>
@@ -7122,25 +7122,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S37" t="n">
-        <v>1440.555541309953</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T37" t="n">
-        <v>1220.954076332894</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U37" t="n">
-        <v>1220.954076332894</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V37" t="n">
-        <v>966.2695881270071</v>
+        <v>494.3395271261094</v>
       </c>
       <c r="W37" t="n">
-        <v>676.8524180900465</v>
+        <v>494.3395271261094</v>
       </c>
       <c r="X37" t="n">
-        <v>676.8524180900465</v>
+        <v>266.349976228092</v>
       </c>
       <c r="Y37" t="n">
-        <v>456.0598389465164</v>
+        <v>261.0127623330919</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7195,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>538.7363435406111</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>140.7528025687996</v>
@@ -7359,25 +7359,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S40" t="n">
-        <v>1440.555541309953</v>
+        <v>1375.775677988169</v>
       </c>
       <c r="T40" t="n">
-        <v>1440.555541309953</v>
+        <v>1375.775677988169</v>
       </c>
       <c r="U40" t="n">
-        <v>1264.486466613698</v>
+        <v>1086.700451332367</v>
       </c>
       <c r="V40" t="n">
-        <v>1009.801978407811</v>
+        <v>832.0159631264798</v>
       </c>
       <c r="W40" t="n">
-        <v>720.3848083708508</v>
+        <v>542.5987930895193</v>
       </c>
       <c r="X40" t="n">
-        <v>720.3848083708508</v>
+        <v>314.6092421915019</v>
       </c>
       <c r="Y40" t="n">
-        <v>720.3848083708508</v>
+        <v>93.81666304797186</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7426,37 +7426,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>848.0626912366002</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="C43" t="n">
-        <v>679.1265083086934</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>140.7528025687996</v>
@@ -7596,25 +7596,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S43" t="n">
-        <v>1257.700706964857</v>
+        <v>1374.584563821698</v>
       </c>
       <c r="T43" t="n">
-        <v>1257.700706964857</v>
+        <v>1154.983098844639</v>
       </c>
       <c r="U43" t="n">
-        <v>1257.700706964857</v>
+        <v>865.9078721888367</v>
       </c>
       <c r="V43" t="n">
-        <v>1257.700706964857</v>
+        <v>611.2233839829498</v>
       </c>
       <c r="W43" t="n">
-        <v>1257.700706964857</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X43" t="n">
-        <v>1029.71115606684</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="Y43" t="n">
-        <v>1029.71115606684</v>
+        <v>93.81666304797186</v>
       </c>
     </row>
     <row r="44">
@@ -7833,22 +7833,22 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S46" t="n">
-        <v>1440.555541309953</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T46" t="n">
-        <v>1220.954076332894</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U46" t="n">
-        <v>931.8788496770917</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V46" t="n">
-        <v>677.1943614712048</v>
+        <v>494.3395271261094</v>
       </c>
       <c r="W46" t="n">
-        <v>387.7771914342442</v>
+        <v>204.9223570891488</v>
       </c>
       <c r="X46" t="n">
-        <v>314.6092421915019</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="Y46" t="n">
         <v>93.81666304797187</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>46.92089143141473</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23469,19 +23469,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>31.35258637214591</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>82.30189795800251</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23709,7 +23709,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>103.1147564100614</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>175.7060209734893</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -23946,16 +23946,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>150.7097475538761</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986308</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>91.3276537425867</v>
       </c>
       <c r="V22" t="n">
-        <v>150.709747553872</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>4.924598437355741</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24414,25 +24414,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>115.715018288272</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24651,7 +24651,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -24660,16 +24660,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>137.056975048979</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>44.27481708746384</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,10 +24840,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,7 +24855,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>59.97789547305482</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>115.7150182882765</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>98.75840482221022</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>37.64644592792206</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,10 +25317,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>101.9528298174914</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25362,25 +25362,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>213.3008115960447</v>
       </c>
     </row>
     <row r="38">
@@ -25402,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25599,13 +25599,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>116.8942213130787</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>111.8760904399523</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>26.53787517186741</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25836,19 +25836,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.715018288272</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>153.2733856387223</v>
+        <v>115.715018288272</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>900719.5099585135</v>
+        <v>900719.5099585134</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>900719.5099585135</v>
+        <v>900719.5099585134</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>900719.5099585137</v>
+        <v>900719.5099585134</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>900719.5099585134</v>
+        <v>900719.5099585135</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>900719.5099585133</v>
+        <v>900719.5099585134</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>900719.5099585134</v>
+        <v>900719.5099585135</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>900719.5099585135</v>
+        <v>900719.5099585134</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>900719.5099585135</v>
+        <v>900719.5099585134</v>
       </c>
     </row>
   </sheetData>
@@ -26316,28 +26316,28 @@
         <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
+        <v>492625.0619185698</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
-      <c r="D2" t="n">
-        <v>492625.0619185698</v>
-      </c>
       <c r="E2" t="n">
+        <v>469940.6138913982</v>
+      </c>
+      <c r="F2" t="n">
         <v>469940.6138913981</v>
       </c>
-      <c r="F2" t="n">
-        <v>469940.6138913982</v>
-      </c>
       <c r="G2" t="n">
-        <v>469940.6138913982</v>
+        <v>469940.6138913981</v>
       </c>
       <c r="H2" t="n">
-        <v>469940.6138913982</v>
+        <v>469940.613891398</v>
       </c>
       <c r="I2" t="n">
         <v>469940.6138913982</v>
       </c>
       <c r="J2" t="n">
-        <v>469940.6138913981</v>
+        <v>469940.6138913982</v>
       </c>
       <c r="K2" t="n">
         <v>469940.6138913981</v>
@@ -26346,10 +26346,10 @@
         <v>469940.613891398</v>
       </c>
       <c r="M2" t="n">
-        <v>469940.613891398</v>
+        <v>469940.6138913981</v>
       </c>
       <c r="N2" t="n">
-        <v>469940.613891398</v>
+        <v>469940.6138913979</v>
       </c>
       <c r="O2" t="n">
         <v>469940.613891398</v>
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.359841684869025e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073556</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.726386926748091e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405272</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
         <v>761.3882086835455</v>
       </c>
       <c r="F4" t="n">
-        <v>761.3882086835455</v>
+        <v>761.3882086835454</v>
       </c>
       <c r="G4" t="n">
-        <v>761.3882086835455</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="H4" t="n">
-        <v>761.3882086835456</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="I4" t="n">
         <v>761.3882086835451</v>
       </c>
       <c r="J4" t="n">
-        <v>761.3882086836097</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="K4" t="n">
-        <v>761.3882086835449</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="L4" t="n">
         <v>761.3882086835451</v>
@@ -26456,7 +26456,7 @@
         <v>761.3882086835451</v>
       </c>
       <c r="O4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.388208683545</v>
       </c>
       <c r="P4" t="n">
         <v>761.3882086835451</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26481,10 +26481,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1037650.368474468</v>
       </c>
       <c r="C6" t="n">
-        <v>291094.3772531237</v>
+        <v>291094.377253124</v>
       </c>
       <c r="D6" t="n">
-        <v>291094.3772531237</v>
+        <v>291094.3772531241</v>
       </c>
       <c r="E6" t="n">
-        <v>41699.0487169863</v>
+        <v>42549.71551800531</v>
       </c>
       <c r="F6" t="n">
-        <v>367111.5105243421</v>
+        <v>367962.1773253611</v>
       </c>
       <c r="G6" t="n">
-        <v>367111.5105243421</v>
+        <v>367962.1773253611</v>
       </c>
       <c r="H6" t="n">
-        <v>367111.5105243421</v>
+        <v>367962.177325361</v>
       </c>
       <c r="I6" t="n">
-        <v>367111.5105243424</v>
+        <v>367962.177325361</v>
       </c>
       <c r="J6" t="n">
-        <v>149580.3081270646</v>
+        <v>150430.9749280835</v>
       </c>
       <c r="K6" t="n">
-        <v>367111.5105243419</v>
+        <v>367962.1773253609</v>
       </c>
       <c r="L6" t="n">
-        <v>367111.5105243417</v>
+        <v>367962.1773253608</v>
       </c>
       <c r="M6" t="n">
-        <v>282056.4825888299</v>
+        <v>282907.149389849</v>
       </c>
       <c r="N6" t="n">
-        <v>367111.5105243419</v>
+        <v>367962.1773253608</v>
       </c>
       <c r="O6" t="n">
-        <v>367111.5105243418</v>
+        <v>367962.1773253608</v>
       </c>
       <c r="P6" t="n">
-        <v>367111.510524342</v>
+        <v>367962.1773253609</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26807,7 +26807,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26962,10 +26962,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483759</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>377.9418368861312</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>66.84705671725186</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27466,7 +27466,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.529532139305957e-12</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>107.7439527351658</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983813</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004739</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>58.34628052367276</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>303.9530049144594</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>362.4386851003808</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.7439527351651</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,19 +27830,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>136.8126497784313</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>377.4867441581646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>330.86501498681</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>94.15744254776814</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>14.88174980530002</v>
       </c>
     </row>
     <row r="11">
@@ -28851,10 +28851,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28961,7 +28961,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-3.016490760880212e-12</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -28988,7 +28988,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29699,7 +29699,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003807</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781687</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970247</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098818</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31621,7 +31621,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
@@ -31837,7 +31837,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31846,7 +31846,7 @@
         <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>337.5641188593834</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862124</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565758</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>446.0127311990634</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565758</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565758</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33034,19 +33034,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>567.5882829286713</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34140,7 +34140,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597696</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.9421752903428</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996669</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286435</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.123718484038</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230781</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567571</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106919</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014208</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754089</v>
@@ -35494,7 +35494,7 @@
         <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>199.0097390795092</v>
       </c>
       <c r="M12" t="n">
         <v>603.412613764194</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121313</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>303.878697277045</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.41024194023011</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K16" t="n">
         <v>157.5888220649825</v>
@@ -35813,19 +35813,19 @@
         <v>231.8673127775771</v>
       </c>
       <c r="M16" t="n">
-        <v>247.7627660915996</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N16" t="n">
         <v>249.8084161454457</v>
       </c>
       <c r="O16" t="n">
-        <v>210.2202333401631</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P16" t="n">
         <v>160.6252099925839</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.05929892214695</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121313</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>47.41024194023011</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K19" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L19" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M19" t="n">
-        <v>247.7627660915996</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N19" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O19" t="n">
-        <v>210.2202333401631</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P19" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.05929892214695</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121313</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>47.41024194023011</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K22" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L22" t="n">
-        <v>231.8673127775813</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M22" t="n">
-        <v>247.7627660915996</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N22" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O22" t="n">
-        <v>210.2202333401631</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P22" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.05929892214695</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36682,19 +36682,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>425.454249006653</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36995,7 +36995,7 @@
         <v>157.5888220649824</v>
       </c>
       <c r="L31" t="n">
-        <v>231.8673127775723</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M31" t="n">
         <v>247.7627660915995</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
